--- a/security/checklist_security-lab3.xlsx
+++ b/security/checklist_security-lab3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chuyendephattrienweb1_2024\security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFDC4FA-BDE7-4652-ACE0-A27D67386960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF245F2B-95A5-4D4B-8F64-DAAF5DF4A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mmm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1275,8 +1275,8 @@
   <dimension ref="A1:AE898"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y14" sqref="Y14"/>
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1376,7 +1376,7 @@
       <c r="AC3" s="34"/>
       <c r="AD3" s="39" t="str">
         <f>"Point: "&amp;SUM(AD5:AD13)</f>
-        <v>Point: 8</v>
+        <v>Point: 6</v>
       </c>
       <c r="AE3" s="13"/>
     </row>
@@ -1504,14 +1504,14 @@
         <v>34</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="18">
         <f>IF(Z6="OK",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="19"/>
     </row>
@@ -1825,14 +1825,14 @@
         <v>34</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="13"/>
     </row>
